--- a/examples/biochemical_model/template.xlsx
+++ b/examples/biochemical_model/template.xlsx
@@ -7,15 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="!!_Schema" sheetId="1" r:id="rId1"/>
-    <sheet name="!!Compound" sheetId="2" r:id="rId2"/>
-    <sheet name="!!Model" sheetId="3" r:id="rId3"/>
-    <sheet name="!!Reaction" sheetId="4" r:id="rId4"/>
+    <sheet name="!!_Table of contents" sheetId="1" r:id="rId1"/>
+    <sheet name="!!_Schema" sheetId="2" r:id="rId2"/>
+    <sheet name="!!Compound" sheetId="3" r:id="rId3"/>
+    <sheet name="!!Model" sheetId="4" r:id="rId4"/>
+    <sheet name="!!Reaction" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Schema'!$A$3:$G$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Compound'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Reaction'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$3:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Compound'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Reaction'!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -253,7 +255,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+  <si>
+    <t>'!!_Schema'!A1</t>
+  </si>
   <si>
     <t>'!!Compound'!A1</t>
   </si>
@@ -264,10 +269,37 @@
     <t>'!!Reaction'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-12 00:22:56'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-03-12 00:22:56' objTablesVersion='0.0.8'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.9' date='2020-04-27 01:05:01'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-04-27 01:05:01' objTablesVersion='0.0.9'</t>
+  </si>
+  <si>
+    <t>!Table</t>
+  </si>
+  <si>
+    <t>!Description</t>
+  </si>
+  <si>
+    <t>!Number of objects</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Table/model and column/attribute definitions</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-04-27 01:05:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -288,12 +320,6 @@
     <t>!Verbose name plural</t>
   </si>
   <si>
-    <t>!Description</t>
-  </si>
-  <si>
-    <t>Compound</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -306,7 +332,7 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>Slug</t>
+    <t>Slug('^(?!(^|\\b)(\\d+(\\.\\d*)?(\\b|$))|(\\.\\d+$)|(0[x][0-9a-f]+(\\b|$))|([0-9]+e[0-9]+(\\b|$)))[a-z0-9_]+$', flags=2, primary=True, unique=True)</t>
   </si>
   <si>
     <t>Identifier</t>
@@ -327,7 +353,7 @@
     <t>model</t>
   </si>
   <si>
-    <t>ManyToOne</t>
+    <t>ManyToOne('Model', related_name='compounds')</t>
   </si>
   <si>
     <t>name</t>
@@ -336,15 +362,9 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>column</t>
   </si>
   <si>
-    <t>Reaction</t>
-  </si>
-  <si>
     <t>equation</t>
   </si>
   <si>
@@ -354,7 +374,10 @@
     <t>is_reversible</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' id='Compound' name='Compound' description='Compound' date='2020-03-12 00:22:56' objTablesVersion='0.0.8'</t>
+    <t>ManyToOne('Model', related_name='reactions')</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Compound' name='Compound' description='Compound' date='2020-04-27 01:05:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Model</t>
@@ -369,10 +392,10 @@
     <t>!IsConstant</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='column' id='Model' name='Model' description='Model' date='2020-03-12 00:22:56' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' tableFormat='row' id='Reaction' name='Reaction' description='Reaction' date='2020-03-12 00:22:56' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' tableFormat='column' class='Model' name='Model' description='Model' date='2020-04-27 01:05:01' objTablesVersion='0.0.9'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reaction' description='Reaction' date='2020-04-27 01:05:01' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Equation</t>
@@ -759,10 +782,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <autoFilter ref="A3:C7"/>
+  <hyperlinks>
+    <hyperlink ref="A4" location="'!!_Schema'!A1" tooltip="Click to view schema" display="'!!_Schema'!A1"/>
+    <hyperlink ref="A5" location="'!!Compound'!A1" tooltip="Click to view compound" display="'!!Compound'!A1"/>
+    <hyperlink ref="A6" location="'!!Model'!A1" tooltip="Click to view model" display="'!!Model'!A1"/>
+    <hyperlink ref="A7" location="'!!Reaction'!A1" tooltip="Click to view reaction" display="'!!Reaction'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -774,7 +892,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -784,91 +902,97 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.01" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.01" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.01" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -876,16 +1000,16 @@
     </row>
     <row r="7" spans="1:7" ht="15.01" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -893,132 +1017,132 @@
     </row>
     <row r="8" spans="1:7" ht="15.01" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15.01" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.01" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.01" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.01" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.01" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.01" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1026,52 +1150,52 @@
     </row>
     <row r="15" spans="1:7" ht="15.01" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15.01" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15.01" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1079,16 +1203,16 @@
     </row>
     <row r="18" spans="1:7" ht="15.01" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1096,43 +1220,26 @@
     </row>
     <row r="19" spans="1:7" ht="15.01" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>26</v>
+      <c r="G19" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A3:G20"/>
+  <autoFilter ref="A2:G19"/>
   <hyperlinks>
     <hyperlink ref="A3" location="'!!Compound'!A1" tooltip="Click to view compound" display="'!!Compound'!A1"/>
     <hyperlink ref="A9" location="'!!Model'!A1" tooltip="Click to view model" display="'!!Model'!A1"/>
@@ -1142,7 +1249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1159,7 +1266,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1168,19 +1275,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.01" customHeight="1">
@@ -1279,7 +1386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -1298,7 +1405,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1313,7 +1420,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1328,7 +1435,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1357,7 +1464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -1374,7 +1481,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1385,25 +1492,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.01" customHeight="1">

--- a/examples/biochemical_model/template.xlsx
+++ b/examples/biochemical_model/template.xlsx
@@ -255,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="56">
   <si>
     <t>'!!_Schema'!A1</t>
   </si>
@@ -269,10 +269,10 @@
     <t>'!!Reaction'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.9' date='2020-04-27 01:05:01'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-04-27 01:05:01' objTablesVersion='0.0.9'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-05-29 00:18:53'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-05-29 00:18:53' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -299,7 +299,7 @@
     <t>Reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-04-27 01:05:01' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-05-29 00:18:53' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -332,7 +332,10 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>Slug('^(?!(^|\\b)(\\d+(\\.\\d*)?(\\b|$))|(\\.\\d+$)|(0[x][0-9a-f]+(\\b|$))|([0-9]+e[0-9]+(\\b|$)))[a-z0-9_]+$', flags=2, primary=True, unique=True)</t>
+    <t>Slug(r'^(?!(^|\b)(\d+(\.\d*)?(\b|$))|(\.\d+$)|(0[x][0-9a-f]+(\b|$))|([0-9]+e[0-9]+(\b|$)))[a-z0-9_]+$', flags=2, primary=True, unique=True)</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Identifier</t>
@@ -344,12 +347,18 @@
     <t>String</t>
   </si>
   <si>
+    <t>Identifiers</t>
+  </si>
+  <si>
     <t>is_constant</t>
   </si>
   <si>
     <t>Boolean</t>
   </si>
   <si>
+    <t>IsConstant</t>
+  </si>
+  <si>
     <t>model</t>
   </si>
   <si>
@@ -368,16 +377,25 @@
     <t>equation</t>
   </si>
   <si>
+    <t>Equation</t>
+  </si>
+  <si>
     <t>gene</t>
   </si>
   <si>
+    <t>Gene</t>
+  </si>
+  <si>
     <t>is_reversible</t>
   </si>
   <si>
+    <t>IsReversible</t>
+  </si>
+  <si>
     <t>ManyToOne('Model', related_name='reactions')</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Compound' name='Compound' description='Compound' date='2020-04-27 01:05:01' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Compound' name='Compound' description='Compound' date='2020-05-29 00:18:53' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Model</t>
@@ -392,10 +410,10 @@
     <t>!IsConstant</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='column' class='Model' name='Model' description='Model' date='2020-04-27 01:05:01' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reaction' description='Reaction' date='2020-04-27 01:05:01' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables type='Data' tableFormat='column' class='Model' name='Model' description='Model' date='2020-05-29 00:18:53' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reaction' description='Reaction' date='2020-05-29 00:18:53' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Equation</t>
@@ -958,15 +976,17 @@
       <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.01" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>24</v>
@@ -975,15 +995,17 @@
         <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.01" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
@@ -992,15 +1014,17 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.01" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>24</v>
@@ -1009,15 +1033,17 @@
         <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="15.01" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>24</v>
@@ -1026,12 +1052,14 @@
         <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.01" customHeight="1">
@@ -1043,7 +1071,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
@@ -1068,15 +1096,17 @@
       <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.01" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>24</v>
@@ -1085,12 +1115,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.01" customHeight="1">
@@ -1116,7 +1148,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.01" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>24</v>
@@ -1125,15 +1157,17 @@
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.01" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -1142,9 +1176,11 @@
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
@@ -1161,15 +1197,17 @@
       <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.01" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>24</v>
@@ -1178,15 +1216,17 @@
         <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15.01" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>24</v>
@@ -1195,15 +1235,17 @@
         <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="15.01" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>24</v>
@@ -1212,15 +1254,17 @@
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="15.01" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>24</v>
@@ -1229,12 +1273,14 @@
         <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1312,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1275,19 +1321,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.01" customHeight="1">
@@ -1405,7 +1451,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1420,7 +1466,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1481,7 +1527,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1492,25 +1538,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.01" customHeight="1">
